--- a/nriss-patch-1/ig/StructureDefinition-tddui-status-author.xlsx
+++ b/nriss-patch-1/ig/StructureDefinition-tddui-status-author.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T08:22:07+00:00</t>
+    <t>2025-12-19T09:47:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -337,7 +337,7 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner-role)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner|2.2.0-ballot|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner-role|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -696,7 +696,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="139.5390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="158.5546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
